--- a/Git Commands.xlsx
+++ b/Git Commands.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive - Matthias Bähr Consulting\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://baehrconsulting-my.sharepoint.com/personal/matthias_baehr-consulting_de/Documents/Desktop/git tut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2B5478-8176-4E1A-9B19-AB2889BDEF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{7E2B5478-8176-4E1A-9B19-AB2889BDEF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{994C5FC5-A748-4A97-88DE-B77711D2F430}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{616CFBB6-B809-49D6-A640-EC8334C04C4A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{616CFBB6-B809-49D6-A640-EC8334C04C4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>git checkout -</t>
   </si>
@@ -109,6 +109,36 @@
   </si>
   <si>
     <t>git pull -r origin main</t>
+  </si>
+  <si>
+    <t>show all branches (incl. Remote branches)</t>
+  </si>
+  <si>
+    <t>delete branch</t>
+  </si>
+  <si>
+    <t>git stash save "comment"</t>
+  </si>
+  <si>
+    <t>Create stash of current changes</t>
+  </si>
+  <si>
+    <t>git stash list</t>
+  </si>
+  <si>
+    <t>show all stashes</t>
+  </si>
+  <si>
+    <t>git stash apply stash@{0}</t>
+  </si>
+  <si>
+    <t>apply the first stash in list (the stash will not be deleted from this list after applying it)</t>
+  </si>
+  <si>
+    <t>git stash pop</t>
+  </si>
+  <si>
+    <t>applies the first stash and deletes it from stash list</t>
   </si>
 </sst>
 </file>
@@ -460,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F010244E-6945-44BD-A895-B6373FEF26C0}">
-  <dimension ref="B4:C21"/>
+  <dimension ref="B4:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,6 +547,9 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -527,6 +560,9 @@
       <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
@@ -586,6 +622,38 @@
       </c>
       <c r="C21" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
